--- a/data/income_statement/3digits/total/551_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/551_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>551-Hotels and similar accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>551-Hotels and similar accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11633285.25975</v>
+        <v>11633486.86835</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13937294.10473</v>
+        <v>13937457.37022</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18220390.33797</v>
+        <v>18221126.63174</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>19841973.83497</v>
+        <v>19845840.95162</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>23364709.80943</v>
+        <v>23549815.49869</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27081016.96645</v>
+        <v>27569381.54263</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>28964474.72744</v>
+        <v>30034714.36035</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22738139.15118</v>
+        <v>22977128.7089</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>33125881.83147</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>56305829.99458</v>
+        <v>56358263.9445</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>68049096.61001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>68883304.71364</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>34414247.972</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>10628397.76015</v>
+        <v>10628581.55965</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12714721.60448</v>
+        <v>12714882.10557</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>16966778.42478</v>
+        <v>16967514.71855</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18674495.04752</v>
+        <v>18678035.81497</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>21821201.41367</v>
+        <v>22001460.2163</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>25550314.19975</v>
+        <v>26020982.58955</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>27228757.02308</v>
+        <v>28267910.8675</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21519559.39931</v>
+        <v>21755619.91229</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>31429840.86371</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>51654491.71489</v>
+        <v>51705157.17284</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>64573174.67129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>65373017.12732</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>32201285.434</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>745481.2545</v>
@@ -1037,175 +953,195 @@
         <v>828610.81852</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>703485.0728499999</v>
+        <v>703767.84389</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>959862.4862899999</v>
+        <v>961377.04083</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>903277.4857400001</v>
+        <v>903289.3508299999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>982288.5249099999</v>
+        <v>987862.8847399999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>375887.1339300001</v>
+        <v>375887.13393</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>637156.28687</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1424754.48946</v>
+        <v>1426004.06495</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1335363.35406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1354129.01646</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>787350.357</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>259406.2451</v>
+        <v>259424.0542</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>419783.87728</v>
+        <v>419786.64168</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>425001.09467</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>463993.7145999999</v>
+        <v>464037.29276</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>583645.9094700001</v>
+        <v>586978.24156</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>627425.28096</v>
+        <v>645109.60225</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>753429.1794500001</v>
+        <v>778940.60811</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>842692.61794</v>
+        <v>845621.66268</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1058884.68089</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3226583.79023</v>
+        <v>3227102.70671</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2140558.58466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2156158.56986</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1425612.181</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>175186.68152</v>
+        <v>175186.79883</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>193174.30887</v>
+        <v>193174.56314</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>234964.45437</v>
+        <v>234966.05381</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>274704.91271</v>
+        <v>274712.77077</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>319135.86918</v>
+        <v>321403.40457</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>466913.22921</v>
+        <v>483110.2868599999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>595966.5829699999</v>
+        <v>612709.36044</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>618013.46708</v>
+        <v>630191.48282</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>884077.1799199999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3066342.67743</v>
+        <v>3066421.04686</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1707593.96192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1733532.05575</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1413690.421</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>85040.86931000001</v>
+        <v>85040.98662000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>88350.88315000001</v>
+        <v>88351.13742</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>104217.32769</v>
+        <v>104218.92713</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>134727.63682</v>
+        <v>134734.55888</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>154408.52665</v>
+        <v>156005.69399</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>260864.63071</v>
+        <v>262667.15676</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>290920.7306</v>
+        <v>297825.42385</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>368413.32457</v>
+        <v>372004.77556</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>511723.21234</v>
+        <v>511723.2123399999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>692075.30363</v>
+        <v>692153.6730599999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>891378.1257399999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>895695.74165</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>920639.3959999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>63337.31837000001</v>
+        <v>63337.31836999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>75211.65384999999</v>
+        <v>75211.65385</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>105671.25489</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>116578.901</v>
+        <v>116579.837</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>139091.2971</v>
+        <v>139745.543</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>169653.1466</v>
+        <v>183320.56825</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>267166.5259600001</v>
+        <v>276338.88148</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>211368.61065</v>
+        <v>219825.92027</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>328210.7926</v>
@@ -1214,13 +1150,18 @@
         <v>2310293.61746</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>621142.9387800001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>642374.73323</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>355301.6</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>26808.49384</v>
@@ -1235,16 +1176,16 @@
         <v>23398.37489</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>25636.04543</v>
+        <v>25652.16758</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>36395.4519</v>
+        <v>37122.56185</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37879.32640999999</v>
+        <v>38545.05511</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>38231.53186</v>
+        <v>38360.78699</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>44143.17498</v>
@@ -1253,91 +1194,106 @@
         <v>63973.75634000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>195072.8974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>195461.58087</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>137749.425</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11458098.57823</v>
+        <v>11458300.06952</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>13744119.79586</v>
+        <v>13744282.80708</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17985425.8836</v>
+        <v>17986160.57793</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>19567268.92226</v>
+        <v>19571128.18085</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>23045573.94025</v>
+        <v>23228412.09412</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>26614103.73724</v>
+        <v>27086271.25577</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28368508.14447</v>
+        <v>29422004.99991</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22120125.6841</v>
+        <v>22346937.22608</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>32241804.65155</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>53239487.31715</v>
+        <v>53291842.89764</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>66341502.64809001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>67149772.65788999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>33000557.551</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7757954.21374</v>
+        <v>7758230.456139999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9425700.580010001</v>
+        <v>9425851.850060001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11633083.9374</v>
+        <v>11633584.4666</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13376024.09042</v>
+        <v>13378687.33105</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>15674057.12352</v>
+        <v>15827993.3855</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>18263298.03868</v>
+        <v>18565603.16772</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>19988749.0934</v>
+        <v>20720806.90263</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>17994705.86977</v>
+        <v>18160495.91093</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>22902273.38795</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>31257638.27853</v>
+        <v>31290716.51031001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>41424320.21476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>42032169.50418</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24858010.595</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>311569.29269</v>
@@ -1349,34 +1305,39 @@
         <v>290211.11164</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>362258.14571</v>
+        <v>362354.07192</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>443856.33903</v>
+        <v>446080.72834</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>586220.73067</v>
+        <v>589897.61991</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>489065.4596</v>
+        <v>538764.88338</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>537991.74274</v>
+        <v>538593.1057000001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>957121.68201</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>992275.55323</v>
+        <v>993395.01489</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1390780.99686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1405471.99622</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1262483.568</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>501641.93625</v>
@@ -1388,73 +1349,83 @@
         <v>839789.37</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>817990.0406099999</v>
+        <v>818047.19658</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>897102.9394400001</v>
+        <v>897634.18857</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>947700.32224</v>
+        <v>953857.36574</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1049900.31683</v>
+        <v>1069121.35508</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1195363.85666</v>
+        <v>1201218.13203</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1630859.15809</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1909001.55362</v>
+        <v>1922711.58611</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2831091.89273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2867747.68262</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2632583.997</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6918428.562229999</v>
+        <v>6918704.80463</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8567204.494000001</v>
+        <v>8567355.764049999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10417039.22865</v>
+        <v>10417539.75785</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12165359.6827</v>
+        <v>12167869.84115</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14278560.43889</v>
+        <v>14429741.06243</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>16663600.54614</v>
+        <v>16955934.91975</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>18380855.72675</v>
+        <v>19043973.06558</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16149830.81893</v>
+        <v>16309164.42176</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>20052677.17194</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>28237950.75315</v>
+        <v>28256169.44804</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>36965880.84814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37513280.34097999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>20714210.95</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>26314.42257</v>
@@ -1463,7 +1434,7 @@
         <v>24036.23025</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>86044.22710999998</v>
+        <v>86044.22710999999</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>30416.2214</v>
@@ -1472,106 +1443,121 @@
         <v>54537.40616</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>65776.43963000001</v>
+        <v>65913.26231999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>68927.59022</v>
+        <v>68947.59859000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>111519.45144</v>
+        <v>111520.25144</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>261615.37591</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>118410.41853</v>
+        <v>118440.46127</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>236566.47703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>245669.48436</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>248732.08</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3700144.36449</v>
+        <v>3700069.61338</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4318419.21585</v>
+        <v>4318430.957020001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6352341.946199999</v>
+        <v>6352576.11133</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6191244.83184</v>
+        <v>6192440.849799999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7371516.81673</v>
+        <v>7400418.70862</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8350805.698559999</v>
+        <v>8520668.08805</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8379759.05107</v>
+        <v>8701198.097279999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4125419.81433</v>
+        <v>4186441.31515</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9339531.263599999</v>
+        <v>9339531.263600001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>21981849.03862</v>
+        <v>22001126.38733</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>24917182.43333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25117603.15371</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8142546.956</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2839086.07701</v>
+        <v>2839122.7228</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3371834.58889</v>
+        <v>3371867.13466</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3963337.70577</v>
+        <v>3963425.04196</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4395917.530689999</v>
+        <v>4397142.65032</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5124333.49236</v>
+        <v>5151654.61851</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6059482.719119999</v>
+        <v>6162491.260690001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6583790.49206</v>
+        <v>6827906.68362</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6364684.381839999</v>
+        <v>6412962.882850001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>7165067.48391</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10010426.35348</v>
+        <v>10022667.11293</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12475784.6975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12662974.03476</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9706557.973999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>123.87567</v>
@@ -1604,169 +1590,194 @@
         <v>5227.5886</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>10924.43268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12053.10524</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9482.620000000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>298773.10052</v>
+        <v>298774.11535</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>364073.0801300001</v>
+        <v>364073.10513</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>461429.86986</v>
+        <v>461480.51226</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>526254.2581100001</v>
+        <v>526268.62758</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>638458.35612</v>
+        <v>643226.2067699999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>779400.3932899999</v>
+        <v>797925.3639199999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>932843.7789599999</v>
+        <v>963896.02871</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>852690.8583799999</v>
+        <v>859267.26404</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1094764.35037</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1690504.36956</v>
+        <v>1691361.19043</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2019090.6715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2047034.007669999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1231643.662</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2540189.10082</v>
+        <v>2540224.73178</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3005789.64582</v>
+        <v>3005822.16659</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3500263.34178</v>
+        <v>3500300.03557</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3867414.49228</v>
+        <v>3868625.242440001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4484776.29916</v>
+        <v>4507329.574659999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5280014.55454</v>
+        <v>5364498.12548</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5649928.230990001</v>
+        <v>5862992.1728</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5510507.68914</v>
+        <v>5552209.78449</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>6070089.076110001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8314694.39532</v>
+        <v>8326078.3339</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10445769.59332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10603886.92185</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8465431.692</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>861058.2874800001</v>
+        <v>860946.8905799999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>946584.62696</v>
+        <v>946563.82236</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2389004.24043</v>
+        <v>2389151.06937</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1795327.30115</v>
+        <v>1795298.19948</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2247183.32437</v>
+        <v>2248764.09011</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2291322.97944</v>
+        <v>2358176.82736</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1795968.55901</v>
+        <v>1873291.41366</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2239264.56751</v>
+        <v>-2226521.5677</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2174463.77969</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11971422.68514</v>
+        <v>11978459.2744</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>12441397.73583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12454629.11895</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1564011.018</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1397775.40338</v>
+        <v>1397775.87184</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1638246.9527</v>
+        <v>1638247.02875</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2560471.756370001</v>
+        <v>2560472.23863</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2340639.058149999</v>
+        <v>2341004.19252</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3615729.30515</v>
+        <v>3636924.15452</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4499791.17521</v>
+        <v>4599357.066319999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6720935.14218</v>
+        <v>6949772.94138</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5019454.51903</v>
+        <v>5093419.237020001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6629570.639919999</v>
+        <v>6629570.63992</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24564210.91741</v>
+        <v>24564447.67665</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13664831.77556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13786177.41335</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>17896453.817</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16333.27665</v>
@@ -1784,13 +1795,13 @@
         <v>144276.82412</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>86652.83388999999</v>
+        <v>86972.92875000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>60076.1221</v>
+        <v>63131.19108</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>392014.49312</v>
+        <v>392032.20426</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>90107.52636</v>
@@ -1799,13 +1810,18 @@
         <v>128007.94366</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>156795.87887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>156975.76553</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>75305.21400000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2195.95375</v>
@@ -1823,16 +1839,16 @@
         <v>22652.55611</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>44214.12951999999</v>
+        <v>44214.12952</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>120777.83328</v>
+        <v>128081.25664</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>14534.77957</v>
+        <v>15844.91568</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>98228.86636999999</v>
+        <v>98228.86637</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>25965.8308</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>145527.1244</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>50423.453</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>144372.51537</v>
@@ -1856,34 +1877,39 @@
         <v>195144.96789</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>262369.2132</v>
+        <v>262661.0157</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>291796.53262</v>
+        <v>293283.05502</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>371554.2509500001</v>
+        <v>376139.21392</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>414814.5361700001</v>
+        <v>428151.14048</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>426410.32862</v>
+        <v>431255.00259</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>589451.22649</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1017910.93674</v>
+        <v>1017916.96049</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1088687.50488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1098908.50407</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>972018.482</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2741.61097</v>
@@ -1895,22 +1921,22 @@
         <v>8722.01145</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6299.14953</v>
+        <v>6299.149530000001</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3155.1078</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7299.93965</v>
+        <v>7299.99929</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6604.9964</v>
+        <v>6644.111159999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>8767.58294</v>
+        <v>8770.49777</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3815.248849999999</v>
+        <v>3815.24885</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>34114.66340999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>29559.69746</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>12957.237</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>49594.55988</v>
@@ -1940,13 +1971,13 @@
         <v>91224.16635000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>90924.36135000002</v>
+        <v>90941.67235000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>86059.30611000002</v>
+        <v>87277.49149999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>98065.10252999999</v>
+        <v>98190.88322</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>105770.08977</v>
@@ -1955,13 +1986,18 @@
         <v>130572.5359</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>119186.76019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>119952.14905</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>101616.294</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13438.67412</v>
@@ -1976,16 +2012,16 @@
         <v>35923.15946</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>82569.43131</v>
+        <v>82570.43939</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>364056.23748</v>
+        <v>377938.0953199999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>192338.48969</v>
+        <v>196194.44136</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>120996.54206</v>
+        <v>121007.75782</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>101130.42166</v>
@@ -1994,52 +2030,62 @@
         <v>453649.4747</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>364060.23675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>364066.01407</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>101584.589</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>788078.6186700001</v>
+        <v>788079.08713</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1170294.63011</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1846272.26166</v>
+        <v>1846272.59744</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1552083.77332</v>
+        <v>1552092.83562</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2454221.45945</v>
+        <v>2472214.8943</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2932136.69081</v>
+        <v>3003054.61893</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5118080.4837</v>
+        <v>5290542.32392</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3296897.965479999</v>
+        <v>3342316.36755</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>4904670.619890001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21604400.81003</v>
+        <v>21604605.28112</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10392417.70598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10451819.04015</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15464538.774</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>3991.03089</v>
@@ -2054,16 +2100,16 @@
         <v>1684.64375</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>9510.12113</v>
+        <v>9510.121130000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>2409.08115</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>933.60133</v>
+        <v>1283.10083</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>8267.257819999999</v>
+        <v>8531.898280000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2324.54143</v>
@@ -2072,13 +2118,18 @@
         <v>1995.42119</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>13015.55447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>13013.20607</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>13541.305</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1011.30057</v>
@@ -2090,13 +2141,13 @@
         <v>355.12861</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>335.51229</v>
+        <v>335.5122900000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>216.94473</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>679.1681100000001</v>
+        <v>679.16811</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>575.10433</v>
@@ -2105,7 +2156,7 @@
         <v>2355.62248</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>531.6608799999999</v>
+        <v>531.66088</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1691.36936</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>863.3241899999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1222.084</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>376017.86251</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>252382.46583</v>
+        <v>252382.54188</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>431381.9945799999</v>
+        <v>431382.14106</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>385481.04054</v>
+        <v>385545.31011</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>516106.16153</v>
+        <v>517820.0455700001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>599864.4823</v>
+        <v>609708.1589800001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>720674.6690700001</v>
+        <v>747892.7800800001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>651144.84441</v>
+        <v>673114.08737</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>733540.4382199999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1165901.93162</v>
+        <v>1165928.19602</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1354717.98837</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1405492.58836</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1103246.385</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>903037.3233100001</v>
+        <v>903037.35879</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>984913.25725</v>
+        <v>984947.1401200001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2900209.14811</v>
+        <v>2900226.38228</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1181188.15057</v>
+        <v>1181272.68518</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4389974.70238</v>
+        <v>4447683.784770001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3042869.80232</v>
+        <v>3091928.44692</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7414752.10171</v>
+        <v>7595538.906350001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6219480.829849999</v>
+        <v>6265058.48504</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>8753065.857619999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>29476296.60203</v>
+        <v>29476424.57614</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14399175.55714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14512813.80278</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>27273460.167</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>28175.85687</v>
@@ -2207,37 +2273,42 @@
         <v>50826.23234</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>58124.05254</v>
+        <v>58125.24383</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>74000.64125</v>
+        <v>75014.34466999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>91561.39638000001</v>
+        <v>94978.06152000002</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>105716.04632</v>
+        <v>115502.27591</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>93999.285</v>
+        <v>94413.67668</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>126778.43129</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>199645.76671</v>
+        <v>199659.89627</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>260909.67417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>253334.09257</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>124878.93</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>46591.41643</v>
+        <v>46591.41642999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>44599.46854</v>
@@ -2249,31 +2320,36 @@
         <v>22671.7277</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>83644.24875999999</v>
+        <v>83869.09959999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>80122.78986</v>
+        <v>82894.99914</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>139193.63282</v>
+        <v>147828.39914</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>97061.94615</v>
+        <v>97343.36874999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>55876.79389999999</v>
+        <v>55876.7939</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>86977.86371999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>671586.0575300001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>669557.8131199999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>275499.032</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>17919.72991</v>
@@ -2291,13 +2367,13 @@
         <v>27528.91847</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>15282.54271</v>
+        <v>15705.33346</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4202.581480000001</v>
+        <v>6935.151769999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4587.912710000001</v>
+        <v>4587.91271</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1596.51535</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>12073.09158</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>54932.683</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>700973.2457699998</v>
+        <v>700973.28125</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>837293.8672699999</v>
+        <v>837293.8706300001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2628464.86602</v>
+        <v>2628465.41577</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>964848.33289</v>
+        <v>964868.2370900001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4063259.9408</v>
+        <v>4119363.875109999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2704560.37635</v>
+        <v>2746663.9521</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6971521.82967</v>
+        <v>7128279.649219999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5922376.49483</v>
+        <v>5966600.04048</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>8397185.82047</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>28952268.37502</v>
+        <v>28952290.68148</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13096615.25535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13215584.29788</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>26471212.735</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2608.854</v>
@@ -2369,28 +2455,33 @@
         <v>3580.72228</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3582.68781</v>
+        <v>3582.687809999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1027.89245</v>
+        <v>1377.75731</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1720.03807</v>
+        <v>2052.8713</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1448.00798</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3905.314069999999</v>
+        <v>3975.41939</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>15045.54826</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>8780.143</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>18.53425</v>
@@ -2408,10 +2499,10 @@
         <v>188.79676</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>52.5675</v>
+        <v>235.95238</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>382.19375</v>
+        <v>473.14841</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>82.6127</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>233.75904</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>14.899</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>106749.68608</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>51817.84803</v>
+        <v>51851.72753999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>120128.23615</v>
+        <v>120144.92057</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>107918.96024</v>
+        <v>107982.39936</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>137771.43406</v>
+        <v>138138.02788</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>147707.44171</v>
+        <v>147867.46051</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>192707.92522</v>
+        <v>195142.52459</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>99652.54038999999</v>
+        <v>99978.00242</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>170178.631</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>219289.63046</v>
+        <v>219311.06323</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>342712.17121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>346985.20033</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>338141.745</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>845717.82093</v>
+        <v>845718.02601</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>794685.53024</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1593064.3471</v>
+        <v>1593064.89346</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1197483.58508</v>
+        <v>1198032.63443</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2476027.75623</v>
+        <v>2488108.65511</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1924361.73316</v>
+        <v>2020049.64402</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3220525.76837</v>
+        <v>3562621.51302</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3847693.05517</v>
+        <v>3867454.01305</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4891396.23174</v>
+        <v>4891396.231740001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11618950.76039</v>
+        <v>11619355.16172</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7719437.65269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7771429.71539</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11570974.247</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>560558.0520899999</v>
+        <v>560558.2571700001</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>500087.26757</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>878698.41021</v>
+        <v>878698.95657</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>821910.9692200001</v>
+        <v>822460.0185700001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1503205.92222</v>
+        <v>1511855.85278</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1259444.99865</v>
+        <v>1278223.17092</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1828480.77058</v>
+        <v>1919780.07534</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2107529.36327</v>
+        <v>2125510.3187</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2647765.70415</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5311633.98868</v>
+        <v>5311974.279270001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4241489.64263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4276815.043269999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5377629.629</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>285159.76884</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>294598.26267</v>
+        <v>294598.2626700001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>714365.93689</v>
@@ -2561,109 +2672,124 @@
         <v>375572.61586</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>972821.83401</v>
+        <v>976252.80233</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>664916.73451</v>
+        <v>741826.4731000002</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1392044.99779</v>
+        <v>1642841.43768</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1740163.6919</v>
+        <v>1741943.69435</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2243630.52759</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6307316.77171</v>
+        <v>6307380.88245</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3477948.01006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3494614.67212</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6193344.618</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>510078.54662</v>
+        <v>509967.37762</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>805232.79217</v>
+        <v>805178.1807500001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>456202.5015900001</v>
+        <v>456332.03226</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1757294.62365</v>
+        <v>1756997.07239</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1003089.82909</v>
+        <v>-1050104.19525</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1823882.61917</v>
+        <v>1845555.80274</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2118374.16889</v>
+        <v>-2335096.06433</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-7286983.933499999</v>
+        <v>-7265614.82877</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-4840427.66975</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4559613.75987</v>
+        <v>-4552872.786809999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3987616.301560001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3956563.01413</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-22511991.615</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>314244.25727</v>
+        <v>314278.68699</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>288290.77337</v>
+        <v>288304.25489</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>381022.08694</v>
+        <v>381037.7635999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>333565.2684600001</v>
+        <v>333566.75032</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1002018.55797</v>
+        <v>1004101.51491</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1117017.94745</v>
+        <v>1196262.70978</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1174309.79539</v>
+        <v>1279868.67917</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1074708.67907</v>
+        <v>1082638.6362</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1237477.45357</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1134365.03118</v>
+        <v>1134552.68542</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2037002.33689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2051883.60883</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1288393.593</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15486.70036</v>
@@ -2675,112 +2801,127 @@
         <v>7147.31339</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8032.84561</v>
+        <v>8032.845609999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4685.16825</v>
+        <v>4698.12562</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6935.755679999999</v>
+        <v>7034.08197</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7661.362349999999</v>
+        <v>8896.55341</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6769.44985</v>
+        <v>7587.20613</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>14195.76969</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>93372.12848</v>
+        <v>93489.30407</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>25811.49727</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>25823.50066</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>41076.963</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>298757.55691</v>
+        <v>298791.98663</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>285093.953</v>
+        <v>285107.4345200001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>373874.7735499999</v>
+        <v>373890.45021</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>325532.42285</v>
+        <v>325533.90471</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>997333.38972</v>
+        <v>999403.3892900001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1110082.19177</v>
+        <v>1189228.62781</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1166648.43304</v>
+        <v>1270972.12576</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1067939.22922</v>
+        <v>1075051.43007</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1223281.68388</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1040992.9027</v>
+        <v>1041063.38135</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2011190.83962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2026060.10817</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1247316.63</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>241456.41178</v>
+        <v>241456.58578</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>311291.3958699999</v>
+        <v>311779.43281</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1297042.84997</v>
+        <v>1297053.22597</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>476659.22942</v>
+        <v>476660.06765</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>470705.9537</v>
+        <v>472772.11982</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>953928.2650900001</v>
+        <v>1016810.0539</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>557773.0755</v>
+        <v>582522.50913</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1074952.94422</v>
+        <v>1078343.85951</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1664775.01188</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1425845.94015</v>
+        <v>1426473.90888</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1317292.05527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1349104.82694</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1185534.053</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>25181.8444</v>
@@ -2798,28 +2939,33 @@
         <v>55227.93846</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>43217.11761</v>
+        <v>44002.36515</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>36287.68651</v>
+        <v>37371.83262000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>52014.24940000001</v>
+        <v>54345.31958</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>44148.27101</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>48292.6588</v>
+        <v>48295.37688</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>73280.70667999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>73284.44667</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>180321.076</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>24888.23719</v>
@@ -2834,109 +2980,124 @@
         <v>22627.39877</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>60126.7659</v>
+        <v>60188.74571000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>48280.25532</v>
+        <v>48504.13691</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>48550.01984</v>
+        <v>49401.4527</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>40993.83483000001</v>
+        <v>41330.35379</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>33048.73788</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>63200.63814</v>
+        <v>63684.97492</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>205261.01464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>205550.19575</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>70665.68399999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>191386.33019</v>
+        <v>191386.50419</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>253227.2136</v>
+        <v>253715.25054</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1243098.50182</v>
+        <v>1243108.87782</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>416716.8672999999</v>
+        <v>416717.70553</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>355351.24934</v>
+        <v>357355.43565</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>862430.8921599998</v>
+        <v>924303.55184</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>472935.36915</v>
+        <v>495749.22381</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>981944.85999</v>
+        <v>982668.1861400001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1587578.00299</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1314352.64321</v>
+        <v>1314493.55708</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1038750.33395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1070270.18452</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>934547.2929999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>582866.39211</v>
+        <v>582789.47883</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>782232.16967</v>
+        <v>781703.00283</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-459818.26144</v>
+        <v>-459683.43011</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1614200.66269</v>
+        <v>1613903.75506</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-471777.2248199999</v>
+        <v>-518774.80016</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1986972.30153</v>
+        <v>2025008.45862</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1501837.449</v>
+        <v>-1637749.89429</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7287228.19865</v>
+        <v>-7261320.05208</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-5267725.228060001</v>
+        <v>-5267725.22806</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4851094.66884</v>
+        <v>-4844794.01027</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4707326.583179999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4659341.79602</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-22409132.075</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>146884.77016</v>
@@ -2945,73 +3106,81 @@
         <v>194078.92625</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>306421.81137</v>
+        <v>306445.57014</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>295936.82265</v>
+        <v>295965.54128</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>305789.41505</v>
+        <v>305840.08993</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>380419.4881</v>
+        <v>391059.4526</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>338349.54645</v>
+        <v>356216.37397</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>150312.44972</v>
+        <v>159174.86749</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>269837.77214</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>772224.1655499999</v>
+        <v>773416.3635399999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1004339.76804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1006633.7759</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>301452.349</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>435981.6219500001</v>
+        <v>435904.70867</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>588153.2434200001</v>
+        <v>587624.07658</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-766240.07281</v>
+        <v>-766129.00025</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1318263.84004</v>
+        <v>1317938.21378</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-777566.63987</v>
+        <v>-824614.89009</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1606552.81343</v>
+        <v>1633949.00602</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1840186.99545</v>
+        <v>-1993966.26826</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7437540.648370001</v>
+        <v>-7420494.91957</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5537563.000200001</v>
+        <v>-5537563.0002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5623318.83439</v>
+        <v>-5618210.373810001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3702986.81514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3652708.02012</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-22710584.424</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5011</v>
+        <v>5013</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5356</v>
+        <v>5359</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5688</v>
+        <v>5692</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6064</v>
+        <v>6074</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6480</v>
+        <v>6512</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6824</v>
+        <v>6872</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7091</v>
+        <v>7222</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7478</v>
+        <v>7521</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7815</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8035</v>
+        <v>8264</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8996</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9529</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>